--- a/HMSFrameworkProject/testData/HMSProjectTestData.xlsx
+++ b/HMSFrameworkProject/testData/HMSProjectTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngora\eclipse-workspace\HMSFrameworkProject\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngora\git\HMSFrameworkRepo\HMSFrameworkProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE7AA2-A014-47EE-A56D-0942250E1CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C36DC4-4027-494E-B75C-661152E79F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2100" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{EA010426-8EA8-44F9-9F8D-F1899AA8D86A}"/>
+    <workbookView xWindow="2430" yWindow="2100" windowWidth="16200" windowHeight="9308" activeTab="1" xr2:uid="{EA010426-8EA8-44F9-9F8D-F1899AA8D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>ENT</t>
   </si>
   <si>
-    <t>jeeva</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>jeeva1</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC93CA-85A7-4C00-B879-2CFBB856BD26}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF69C9-6057-424E-824B-418E57165277}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -611,12 +611,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
